--- a/Documentation/TestingSpecifications.xlsx
+++ b/Documentation/TestingSpecifications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" tabRatio="834" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Circle" sheetId="6" r:id="rId7"/>
     <sheet name="Account-binding" sheetId="9" r:id="rId8"/>
     <sheet name="Oauth-mobile" sheetId="10" r:id="rId9"/>
+    <sheet name="Service" sheetId="11" r:id="rId10"/>
+    <sheet name="FileTransfer" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="183">
   <si>
     <t xml:space="preserve">post a comment, and request comment detail </t>
   </si>
@@ -120,9 +122,6 @@
     <t>see comment made by non-buddy on buddy's item</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST CASES: </t>
-  </si>
-  <si>
     <t>Post an item, set no notification, buddy does not receive notification</t>
   </si>
   <si>
@@ -439,6 +438,141 @@
   </si>
   <si>
     <t>User cannot login via phone (when phone number is unbound from his account)</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/discussion)</t>
+  </si>
+  <si>
+    <t>TEST CASES:   (in side: TestCase/plugin)</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/daily_life)</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/accountbinding)</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/Oauth-mobile)</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/service)</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>User see no service when no service is added</t>
+  </si>
+  <si>
+    <t>User can add a service (echo)</t>
+  </si>
+  <si>
+    <t>User can see added service</t>
+  </si>
+  <si>
+    <t>User can use echo service</t>
+  </si>
+  <si>
+    <t>User can remove service</t>
+  </si>
+  <si>
+    <t>User see updated service list without removed service</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side:IndividualCases/filetransfer)</t>
+  </si>
+  <si>
+    <t>filetransfer</t>
+  </si>
+  <si>
+    <t>User can upload a small file in one message</t>
+  </si>
+  <si>
+    <t>User can download and compare content of uploaded small file</t>
+  </si>
+  <si>
+    <t>User can upload a big file in multiple chunks</t>
+  </si>
+  <si>
+    <t>User can download and compare content of uploaded big file</t>
+  </si>
+  <si>
+    <t>User uploads and resends file chunk several time =&gt; final file is still correct</t>
+  </si>
+  <si>
+    <t>User can register a new account</t>
+  </si>
+  <si>
+    <t>User can login using registered account</t>
+  </si>
+  <si>
+    <t>User cannot register an existing account</t>
+  </si>
+  <si>
+    <t>User upload an existing file =&gt; server returns existing</t>
+  </si>
+  <si>
+    <t>registration.xml</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (inside: IndividualCases/reg_login)</t>
+  </si>
+  <si>
+    <t>login.xml</t>
+  </si>
+  <si>
+    <t>1_chat</t>
+  </si>
+  <si>
+    <t>TEST CASES:  (in side: TestCase/chat)</t>
+  </si>
+  <si>
+    <t>A can send chat message to B (online)</t>
+  </si>
+  <si>
+    <t>A can send offline chat message to B</t>
+  </si>
+  <si>
+    <t>B Can receive offline message from A</t>
+  </si>
+  <si>
+    <t>If B does not acknowledge the offline message, it is kept in the queue and sent again to B</t>
+  </si>
+  <si>
+    <t>1_chat1</t>
+  </si>
+  <si>
+    <t>1_chat2</t>
+  </si>
+  <si>
+    <t>1_chat3</t>
+  </si>
+  <si>
+    <t>1_chat4</t>
+  </si>
+  <si>
+    <t>1_chat5</t>
+  </si>
+  <si>
+    <t>A sends multiple online message to B, B receives them in order</t>
+  </si>
+  <si>
+    <t>A sends multiple offline message to B, B receives them in order</t>
+  </si>
+  <si>
+    <t>A sends multiple online message and reuse message id, reused message id is discarded</t>
+  </si>
+  <si>
+    <t>A sends multiple offline message and reuse message id, reused message id is discarded</t>
+  </si>
+  <si>
+    <t>B can receive  online message from A</t>
+  </si>
+  <si>
+    <t>1_chat6</t>
+  </si>
+  <si>
+    <t>A sends multiple offline message to B, when B logs in, any message that is not acked by B will be resent</t>
   </si>
 </sst>
 </file>
@@ -489,16 +623,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -506,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -814,36 +939,707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(B3:B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(B4:B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(B5:B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(B2:B5)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(B3:B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(B4:B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(B5:B5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(B6:B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(B7:B7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM(B8:B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(B2:B8)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(B3:B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(B4:B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(B5:B5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(B6:B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(B7:B7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM(B8:B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(B2:B8)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(B3:B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(B2:B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1">
+        <f>SUM(B3:H3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I12" si="0">SUM(B4:H4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <f>SUM(B3:B12)</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM(C3:C12)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D3:D12)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E3:E12)</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F3:F12)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <f>SUM(G3:G12)</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -852,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,74 +1665,74 @@
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1">
         <f>SUM(B3:K3)</f>
         <v>1</v>
@@ -944,26 +1740,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="1">
@@ -973,20 +1769,20 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -994,26 +1790,26 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="1">
@@ -1023,20 +1819,20 @@
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1044,24 +1840,24 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="1">
@@ -1071,26 +1867,26 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+        <v>121</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="1">
@@ -1100,20 +1896,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1121,20 +1917,20 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1142,20 +1938,20 @@
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1163,28 +1959,28 @@
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1192,20 +1988,20 @@
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1213,24 +2009,24 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1238,22 +2034,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1261,22 +2057,22 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1284,22 +2080,22 @@
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1307,22 +2103,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1330,20 +2126,20 @@
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1351,22 +2147,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1374,22 +2170,22 @@
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1397,22 +2193,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1420,20 +2216,20 @@
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1441,20 +2237,20 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1462,22 +2258,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1485,22 +2281,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
         <v>1</v>
       </c>
       <c r="L27" s="1">
@@ -1510,18 +2306,18 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="1">
@@ -1531,22 +2327,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1554,22 +2350,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1577,7 +2373,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <f>SUM(B3:B30)</f>
@@ -1623,7 +2419,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1634,7 +2430,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,27 +2439,27 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="4">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -1673,9 +2469,9 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="4">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -1685,9 +2481,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="4">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1697,9 +2493,9 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="4">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1709,9 +2505,9 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="4">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -1721,9 +2517,9 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="4">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -1733,7 +2529,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B3:B8)</f>
@@ -1742,6 +2538,9 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1751,7 +2550,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:L26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,18 +2566,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1812,41 +2611,41 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="1">
@@ -1858,18 +2657,18 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L25" si="0">SUM(B4:K4)</f>
         <v>1</v>
@@ -1879,18 +2678,18 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1900,20 +2699,20 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1923,24 +2722,24 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1950,18 +2749,18 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1971,18 +2770,18 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1992,24 +2791,24 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2019,18 +2818,18 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2040,28 +2839,28 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2071,28 +2870,28 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2102,18 +2901,18 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2123,16 +2922,16 @@
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="1">
@@ -2144,16 +2943,16 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="1">
@@ -2165,28 +2964,28 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2194,36 +2993,36 @@
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2233,24 +3032,24 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2260,24 +3059,24 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2287,18 +3086,18 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2308,22 +3107,22 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2333,18 +3132,18 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2354,18 +3153,18 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2375,18 +3174,18 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2394,7 +3193,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <f>SUM(B3:B25)</f>
@@ -2451,7 +3250,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="A1:J31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,61 +3258,61 @@
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1">
         <f>SUM(B3:H3)</f>
         <v>2</v>
@@ -2521,19 +3320,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I25" si="0">SUM(B4:H4)</f>
         <v>2</v>
@@ -2541,21 +3340,21 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2563,19 +3362,19 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2583,21 +3382,21 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2605,19 +3404,19 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2625,19 +3424,19 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2645,25 +3444,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2671,21 +3470,21 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2693,21 +3492,21 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2715,17 +3514,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2733,17 +3532,17 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2751,17 +3550,17 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2769,17 +3568,17 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2787,17 +3586,17 @@
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2805,17 +3604,17 @@
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2823,19 +3622,19 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="1">
@@ -2845,19 +3644,19 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="1">
@@ -2867,19 +3666,19 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="1">
@@ -2889,19 +3688,19 @@
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="1">
@@ -2911,17 +3710,17 @@
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2929,19 +3728,19 @@
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2949,15 +3748,15 @@
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
         <v>1</v>
       </c>
       <c r="I25" s="1">
@@ -2967,7 +3766,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ref="B26:H26" si="1">SUM(B3:B25)</f>
@@ -3001,7 +3800,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3011,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,51 +3820,51 @@
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I15" si="0">SUM(B3:H3)</f>
         <v>1</v>
@@ -3073,19 +3872,19 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3093,19 +3892,19 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3113,19 +3912,19 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3133,19 +3932,19 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3153,17 +3952,17 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3171,19 +3970,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3191,19 +3990,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3211,19 +4010,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3231,17 +4030,17 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3249,17 +4048,17 @@
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3267,17 +4066,17 @@
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3285,17 +4084,17 @@
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3303,7 +4102,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
@@ -3337,7 +4136,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3348,7 +4147,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B2" sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,26 +4156,26 @@
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3384,24 +4183,24 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I15" si="0">SUM(B3:H3)</f>
         <v>2</v>
@@ -3409,19 +4208,19 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3429,17 +4228,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3447,17 +4246,17 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3465,17 +4264,17 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3483,17 +4282,17 @@
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3501,17 +4300,17 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3519,17 +4318,17 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3537,17 +4336,17 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3555,17 +4354,17 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3573,17 +4372,17 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3591,13 +4390,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3605,13 +4404,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3619,7 +4418,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
@@ -3653,7 +4452,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
